--- a/data/clean/pingree_park.xlsx
+++ b/data/clean/pingree_park.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Katie Frazer\Documents\ESS500_ForestCarbon\data\clean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4A0509-DB8F-4DD7-8C8F-49D9E41982C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F2C89F-01E9-49FE-8589-3E36BAE8CECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10992" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="17472" windowHeight="10992" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="F24 % cover" sheetId="1" r:id="rId1"/>
@@ -163,6 +163,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,9 +201,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +488,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1352,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8006000-EF80-4257-8A49-FEEC07D91205}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1645,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B140603A-73EB-4EE4-B1B8-A8F89A644D97}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1716,6 +1720,10 @@
       <c r="J3">
         <v>18</v>
       </c>
+      <c r="K3" s="2">
+        <f>(5/30)*100</f>
+        <v>16.666666666666664</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
@@ -1745,6 +1753,10 @@
       <c r="J4">
         <v>21</v>
       </c>
+      <c r="K4" s="2">
+        <f>(7/30)*100</f>
+        <v>23.333333333333332</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
@@ -1774,6 +1786,9 @@
       <c r="J5">
         <v>3</v>
       </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
@@ -1794,6 +1809,9 @@
       <c r="J6">
         <v>0</v>
       </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
@@ -1823,6 +1841,10 @@
       <c r="J7">
         <v>8</v>
       </c>
+      <c r="K7" s="2">
+        <f>(5/30)*100</f>
+        <v>16.666666666666664</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
@@ -1852,6 +1874,10 @@
       <c r="J8">
         <v>13</v>
       </c>
+      <c r="K8" s="2">
+        <f>(10/30)*100</f>
+        <v>33.333333333333329</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
@@ -1880,6 +1906,10 @@
       </c>
       <c r="J9">
         <v>21</v>
+      </c>
+      <c r="K9" s="2">
+        <f>(3/30)*100</f>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
